--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N2">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O2">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P2">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q2">
-        <v>0.5797959989580002</v>
+        <v>0.001390019944444444</v>
       </c>
       <c r="R2">
-        <v>5.218163990622001</v>
+        <v>0.0125101795</v>
       </c>
       <c r="S2">
-        <v>0.183664302427242</v>
+        <v>0.0006977928871283352</v>
       </c>
       <c r="T2">
-        <v>0.183664302427242</v>
+        <v>0.0006977928871283352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.074512</v>
       </c>
       <c r="O3">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P3">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q3">
-        <v>0.266098234464</v>
+        <v>0.005831592</v>
       </c>
       <c r="R3">
-        <v>2.394884110176</v>
+        <v>0.052484328</v>
       </c>
       <c r="S3">
-        <v>0.08429300425974746</v>
+        <v>0.002927471245645238</v>
       </c>
       <c r="T3">
-        <v>0.08429300425974748</v>
+        <v>0.002927471245645239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H4">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N4">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O4">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P4">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q4">
-        <v>0.1094196159466667</v>
+        <v>0.002520273166666667</v>
       </c>
       <c r="R4">
-        <v>0.9847765435200001</v>
+        <v>0.0226824585</v>
       </c>
       <c r="S4">
-        <v>0.03466129030006816</v>
+        <v>0.00126518234241832</v>
       </c>
       <c r="T4">
-        <v>0.03466129030006816</v>
+        <v>0.00126518234241832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H5">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N5">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O5">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P5">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q5">
-        <v>1.336133837247</v>
+        <v>0.282841685994</v>
       </c>
       <c r="R5">
-        <v>12.025204535223</v>
+        <v>2.545575173946</v>
       </c>
       <c r="S5">
-        <v>0.4232524708836097</v>
+        <v>0.1419871113783774</v>
       </c>
       <c r="T5">
-        <v>0.4232524708836097</v>
+        <v>0.1419871113783774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H6">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>8.074512</v>
       </c>
       <c r="O6">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P6">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q6">
-        <v>0.613220608176</v>
+        <v>1.186614134496</v>
       </c>
       <c r="R6">
-        <v>5.518985473584</v>
+        <v>10.679527210464</v>
       </c>
       <c r="S6">
-        <v>0.1942523498559235</v>
+        <v>0.5956827498242764</v>
       </c>
       <c r="T6">
-        <v>0.1942523498559235</v>
+        <v>0.5956827498242765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H7">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N7">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O7">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P7">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q7">
-        <v>0.2521563646311111</v>
+        <v>0.5128259594219999</v>
       </c>
       <c r="R7">
-        <v>2.26940728168</v>
+        <v>4.615433634797999</v>
       </c>
       <c r="S7">
-        <v>0.07987658227340941</v>
+        <v>0.2574396923221544</v>
       </c>
       <c r="T7">
-        <v>0.07987658227340941</v>
+        <v>0.2574396923221544</v>
       </c>
     </row>
   </sheetData>
